--- a/xlsx/DuckDuckGo_intext.xlsx
+++ b/xlsx/DuckDuckGo_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E5%B0%8B%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>搜尋引擎</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_DuckDuckGo</t>
+    <t>搜寻引擎</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_DuckDuckGo</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓州</t>
+    <t>宾州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Web_2.0</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E7%A7%81%E6%AC%8A</t>
   </si>
   <si>
-    <t>隱私權</t>
+    <t>隐私权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%90%9C%E7%B4%A2%E5%BC%95%E6%93%8E</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Perl</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F%E4%BB%8B%E9%9D%A2</t>
   </si>
   <si>
-    <t>應用程式介面</t>
+    <t>应用程式介面</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/duck,_duck,_goose</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%81%AB%E9%95%B7%E5%9F%8E</t>
   </si>
   <si>
-    <t>防火長城</t>
+    <t>防火长城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D%E6%B1%A1%E6%9F%93</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%80%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>時代週刊</t>
+    <t>时代周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/In-N-Out%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>In-N-Out漢堡</t>
+    <t>In-N-Out汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E5%B0%8B%E5%BC%95%E6%93%8E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>搜尋引擎列表</t>
+    <t>搜寻引擎列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Houston_Chronicle</t>
